--- a/biology/Botanique/Cyrtopodium/Cyrtopodium.xlsx
+++ b/biology/Botanique/Cyrtopodium/Cyrtopodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyrtopodium est un genre de la famille des Orchidaceae (Orchidées) et de la sous-famille des Epidendroideae. Ce sont des plantes épiphytes ou terrestres trouvées depuis la Floride et le Mexique jusqu'au nord de l'Argentine mais le plus grand nombre se trouve au Brésil.
 </t>
@@ -511,14 +523,50 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Cyrtopodium andersonii (Lamb. ex Andr.) R. Br. ex Ait. f.
 Cyrtopodium glutiniferum Raddi
-Cyrtopodium punctatum (L.) Lindl.
-Principales espèces
-Cyrtopodium aliciae L.Linden &amp; Rolfe, Lindenia 8: 23 (1892). 
+Cyrtopodium punctatum (L.) Lindl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cyrtopodium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrtopodium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cyrtopodium aliciae L.Linden &amp; Rolfe, Lindenia 8: 23 (1892). 
 Cyrtopodium andersonii (Lamb. ex Andrews) R.Br. in W.T.Aiton, Hortus Kew. 5: 216 (1813).
 Cyrtopodium blanchetii Rchb.f., Linnaea 22: 852 (1850).
 Cyrtopodium braemii L.C.Menezes, Bol. CAOB 5(3): 26 (1993).
@@ -569,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Cyrtopodium</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cyrtopodium</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bentham G., 1881. J. Linn. Soc., Bot. 18: 288.
 Brown R., 1813. in W.T.Aiton, Hortus Kew. 5: 216.</t>
